--- a/routes/uploads/printtemplates/7_tax_invoice.xlsx
+++ b/routes/uploads/printtemplates/7_tax_invoice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianwu/WebStormProjects/as1/routes/uploads/printtemplates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gavin/Desktop/as1_2/routes/uploads/printtemplates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD45E74-0693-B442-95B3-978B4A80DC08}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283B49BF-2C1B-AC44-BA52-F41E277BDA9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="11300" windowWidth="33220" windowHeight="27760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="85">
   <si>
     <t>Logo</t>
   </si>
@@ -284,6 +284,21 @@
   </si>
   <si>
     <t>${custpaymentterms}</t>
+  </si>
+  <si>
+    <t>Att: ${custcontact1}</t>
+  </si>
+  <si>
+    <t>${custaddress1}, ${custaddress2},</t>
+  </si>
+  <si>
+    <t>${custcity}, ${custstate}, ${custpostcode}</t>
+  </si>
+  <si>
+    <t>${custcountry}</t>
+  </si>
+  <si>
+    <t>${custphone1}</t>
   </si>
 </sst>
 </file>
@@ -431,7 +446,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -718,6 +733,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -725,7 +784,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -931,257 +990,260 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1599,7 +1661,7 @@
   <dimension ref="A1:S49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD37"/>
+      <selection activeCell="A8" sqref="A8:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -1638,54 +1700,54 @@
       <c r="S1" s="38"/>
     </row>
     <row r="2" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="81" t="s">
+      <c r="B2" s="125"/>
+      <c r="C2" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
       <c r="G2" s="5"/>
       <c r="H2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="82" t="s">
+      <c r="I2" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="83" t="s">
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="133"/>
       <c r="O2" s="5"/>
       <c r="P2" s="7"/>
-      <c r="Q2" s="84" t="s">
+      <c r="Q2" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="84"/>
-      <c r="S2" s="85"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="135"/>
     </row>
     <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="79"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
+      <c r="A3" s="124"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
       <c r="G3" s="5"/>
       <c r="H3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="82" t="s">
+      <c r="I3" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8" t="s">
         <v>7</v>
@@ -1693,31 +1755,31 @@
       <c r="N3" s="8"/>
       <c r="O3" s="5"/>
       <c r="P3" s="7"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="85"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="135"/>
     </row>
     <row r="4" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="79"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
+      <c r="A4" s="124"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
       <c r="G4" s="5"/>
       <c r="H4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="87" t="s">
+      <c r="I4" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="83" t="s">
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
+      <c r="M4" s="133"/>
+      <c r="N4" s="133"/>
       <c r="O4" s="5"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="5"/>
@@ -1725,20 +1787,20 @@
       <c r="S4" s="39"/>
     </row>
     <row r="5" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="79"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
+      <c r="A5" s="124"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
       <c r="G5" s="5"/>
       <c r="H5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="86" t="s">
+      <c r="I5" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="136"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
@@ -1753,13 +1815,13 @@
       <c r="A6" s="11"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
       <c r="G6" s="5"/>
       <c r="H6" s="12"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -1771,55 +1833,55 @@
       <c r="S6" s="39"/>
     </row>
     <row r="7" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="74"/>
+      <c r="B7" s="139"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="14"/>
-      <c r="F7" s="73" t="s">
+      <c r="F7" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="74"/>
+      <c r="G7" s="139"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="14"/>
-      <c r="K7" s="73" t="s">
+      <c r="K7" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="139"/>
       <c r="N7" s="15"/>
-      <c r="O7" s="75" t="s">
+      <c r="O7" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="75"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
       <c r="R7" s="61" t="s">
         <v>56</v>
       </c>
       <c r="S7" s="39"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="92" t="s">
+      <c r="A8" s="146" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="92" t="s">
+      <c r="B8" s="147"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="111"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="122"/>
+      <c r="M8" s="122"/>
+      <c r="N8" s="123"/>
       <c r="O8" s="5"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="5"/>
@@ -1827,128 +1889,138 @@
       <c r="S8" s="39"/>
     </row>
     <row r="9" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="95"/>
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="112"/>
-      <c r="O9" s="75" t="s">
+      <c r="A9" s="112" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="149"/>
+      <c r="C9" s="149"/>
+      <c r="D9" s="149"/>
+      <c r="E9" s="150"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="124"/>
+      <c r="L9" s="125"/>
+      <c r="M9" s="125"/>
+      <c r="N9" s="126"/>
+      <c r="O9" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="75"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
       <c r="R9" s="62" t="s">
         <v>57</v>
       </c>
       <c r="S9" s="39"/>
     </row>
     <row r="10" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="95"/>
-      <c r="B10" s="96"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="112"/>
-      <c r="O10" s="75" t="s">
+      <c r="A10" s="112" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="149"/>
+      <c r="C10" s="149"/>
+      <c r="D10" s="149"/>
+      <c r="E10" s="150"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="125"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="126"/>
+      <c r="O10" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="76"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="140"/>
       <c r="R10" s="62" t="s">
         <v>58</v>
       </c>
       <c r="S10" s="39"/>
     </row>
     <row r="11" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="95"/>
-      <c r="B11" s="96"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="105"/>
-      <c r="K11" s="113"/>
-      <c r="L11" s="114"/>
-      <c r="M11" s="114"/>
-      <c r="N11" s="115"/>
-      <c r="O11" s="75" t="s">
+      <c r="A11" s="112" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="149"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="127"/>
+      <c r="L11" s="128"/>
+      <c r="M11" s="128"/>
+      <c r="N11" s="129"/>
+      <c r="O11" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="P11" s="75"/>
-      <c r="Q11" s="76"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="140"/>
       <c r="R11" s="62" t="s">
         <v>59</v>
       </c>
       <c r="S11" s="39"/>
     </row>
     <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="95"/>
-      <c r="B12" s="96"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="105"/>
-      <c r="K12" s="77" t="s">
+      <c r="A12" s="112" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="149"/>
+      <c r="C12" s="149"/>
+      <c r="D12" s="149"/>
+      <c r="E12" s="150"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="77"/>
-      <c r="M12" s="78" t="s">
+      <c r="L12" s="141"/>
+      <c r="M12" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="N12" s="78"/>
-      <c r="O12" s="75" t="s">
+      <c r="N12" s="107"/>
+      <c r="O12" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="P12" s="75"/>
-      <c r="Q12" s="76"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="140"/>
       <c r="R12" s="62" t="s">
         <v>60</v>
       </c>
       <c r="S12" s="39"/>
     </row>
     <row r="13" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="95"/>
-      <c r="B13" s="96"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="116" t="s">
+      <c r="A13" s="112" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="149"/>
+      <c r="C13" s="149"/>
+      <c r="D13" s="149"/>
+      <c r="E13" s="150"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="116"/>
-      <c r="M13" s="78" t="s">
+      <c r="L13" s="130"/>
+      <c r="M13" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="N13" s="78"/>
+      <c r="N13" s="107"/>
       <c r="O13" s="5"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="5"/>
@@ -1956,24 +2028,24 @@
       <c r="S13" s="39"/>
     </row>
     <row r="14" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="98"/>
-      <c r="B14" s="99"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="108"/>
-      <c r="K14" s="89" t="s">
+      <c r="A14" s="151"/>
+      <c r="B14" s="152"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="89"/>
-      <c r="M14" s="78" t="s">
+      <c r="L14" s="108"/>
+      <c r="M14" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="N14" s="78"/>
+      <c r="N14" s="107"/>
       <c r="O14" s="16"/>
       <c r="P14" s="17"/>
       <c r="Q14" s="16"/>
@@ -1984,22 +2056,22 @@
       <c r="A15" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="90" t="s">
+      <c r="B15" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90" t="s">
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="90"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="109"/>
+      <c r="L15" s="109"/>
+      <c r="M15" s="109"/>
       <c r="N15" s="45" t="s">
         <v>26</v>
       </c>
@@ -2023,22 +2095,22 @@
       <c r="A16" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91" t="s">
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="91"/>
-      <c r="M16" s="91"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="110"/>
       <c r="N16" s="64" t="s">
         <v>69</v>
       </c>
@@ -2060,18 +2132,18 @@
     </row>
     <row r="17" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
+      <c r="B17" s="144"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="144"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="143"/>
+      <c r="K17" s="143"/>
+      <c r="L17" s="143"/>
+      <c r="M17" s="143"/>
       <c r="N17" s="52"/>
       <c r="O17" s="49"/>
       <c r="P17" s="53"/>
@@ -2081,18 +2153,18 @@
     </row>
     <row r="18" spans="1:19" s="47" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="21"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
+      <c r="B18" s="142"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="142"/>
+      <c r="I18" s="142"/>
+      <c r="J18" s="142"/>
+      <c r="K18" s="142"/>
+      <c r="L18" s="142"/>
+      <c r="M18" s="142"/>
       <c r="N18" s="55"/>
       <c r="O18" s="50"/>
       <c r="P18" s="56"/>
@@ -2102,18 +2174,18 @@
     </row>
     <row r="19" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="20"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
+      <c r="B19" s="143"/>
+      <c r="C19" s="143"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="144"/>
+      <c r="I19" s="144"/>
+      <c r="J19" s="144"/>
+      <c r="K19" s="144"/>
+      <c r="L19" s="144"/>
+      <c r="M19" s="144"/>
       <c r="N19" s="52"/>
       <c r="O19" s="49"/>
       <c r="P19" s="53"/>
@@ -2123,18 +2195,18 @@
     </row>
     <row r="20" spans="1:19" s="47" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="21"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="142"/>
+      <c r="J20" s="142"/>
+      <c r="K20" s="142"/>
+      <c r="L20" s="142"/>
+      <c r="M20" s="142"/>
       <c r="N20" s="55"/>
       <c r="O20" s="50"/>
       <c r="P20" s="56"/>
@@ -2144,18 +2216,18 @@
     </row>
     <row r="21" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="20"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
+      <c r="B21" s="143"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="143"/>
+      <c r="G21" s="143"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="144"/>
+      <c r="J21" s="144"/>
+      <c r="K21" s="144"/>
+      <c r="L21" s="144"/>
+      <c r="M21" s="144"/>
       <c r="N21" s="52"/>
       <c r="O21" s="49"/>
       <c r="P21" s="53"/>
@@ -2165,18 +2237,18 @@
     </row>
     <row r="22" spans="1:19" s="47" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="21"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
+      <c r="B22" s="142"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="142"/>
+      <c r="J22" s="142"/>
+      <c r="K22" s="142"/>
+      <c r="L22" s="142"/>
+      <c r="M22" s="142"/>
       <c r="N22" s="55"/>
       <c r="O22" s="50"/>
       <c r="P22" s="56"/>
@@ -2186,18 +2258,18 @@
     </row>
     <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="20"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="70"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="143"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="144"/>
+      <c r="I23" s="144"/>
+      <c r="J23" s="144"/>
+      <c r="K23" s="144"/>
+      <c r="L23" s="144"/>
+      <c r="M23" s="144"/>
       <c r="N23" s="52"/>
       <c r="O23" s="49"/>
       <c r="P23" s="53"/>
@@ -2207,18 +2279,18 @@
     </row>
     <row r="24" spans="1:19" s="47" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="21"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
+      <c r="B24" s="142"/>
+      <c r="C24" s="142"/>
+      <c r="D24" s="142"/>
+      <c r="E24" s="142"/>
+      <c r="F24" s="142"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="142"/>
+      <c r="I24" s="142"/>
+      <c r="J24" s="142"/>
+      <c r="K24" s="142"/>
+      <c r="L24" s="142"/>
+      <c r="M24" s="142"/>
       <c r="N24" s="55"/>
       <c r="O24" s="50"/>
       <c r="P24" s="56"/>
@@ -2228,18 +2300,18 @@
     </row>
     <row r="25" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="20"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="70"/>
+      <c r="B25" s="143"/>
+      <c r="C25" s="143"/>
+      <c r="D25" s="143"/>
+      <c r="E25" s="143"/>
+      <c r="F25" s="143"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="144"/>
+      <c r="I25" s="144"/>
+      <c r="J25" s="144"/>
+      <c r="K25" s="144"/>
+      <c r="L25" s="144"/>
+      <c r="M25" s="144"/>
       <c r="N25" s="52"/>
       <c r="O25" s="49"/>
       <c r="P25" s="53"/>
@@ -2249,18 +2321,18 @@
     </row>
     <row r="26" spans="1:19" s="47" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="21"/>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
+      <c r="B26" s="142"/>
+      <c r="C26" s="142"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="142"/>
+      <c r="F26" s="142"/>
+      <c r="G26" s="142"/>
+      <c r="H26" s="142"/>
+      <c r="I26" s="142"/>
+      <c r="J26" s="142"/>
+      <c r="K26" s="142"/>
+      <c r="L26" s="142"/>
+      <c r="M26" s="142"/>
       <c r="N26" s="55"/>
       <c r="O26" s="50"/>
       <c r="P26" s="56"/>
@@ -2270,18 +2342,18 @@
     </row>
     <row r="27" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="20"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="143"/>
+      <c r="D27" s="143"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="143"/>
+      <c r="H27" s="144"/>
+      <c r="I27" s="144"/>
+      <c r="J27" s="144"/>
+      <c r="K27" s="144"/>
+      <c r="L27" s="144"/>
+      <c r="M27" s="144"/>
       <c r="N27" s="52"/>
       <c r="O27" s="49"/>
       <c r="P27" s="53"/>
@@ -2291,18 +2363,18 @@
     </row>
     <row r="28" spans="1:19" s="47" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="21"/>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="69"/>
+      <c r="B28" s="142"/>
+      <c r="C28" s="142"/>
+      <c r="D28" s="142"/>
+      <c r="E28" s="142"/>
+      <c r="F28" s="142"/>
+      <c r="G28" s="142"/>
+      <c r="H28" s="142"/>
+      <c r="I28" s="142"/>
+      <c r="J28" s="142"/>
+      <c r="K28" s="142"/>
+      <c r="L28" s="142"/>
+      <c r="M28" s="142"/>
       <c r="N28" s="55"/>
       <c r="O28" s="50"/>
       <c r="P28" s="56"/>
@@ -2312,18 +2384,18 @@
     </row>
     <row r="29" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="20"/>
-      <c r="B29" s="71"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
+      <c r="B29" s="143"/>
+      <c r="C29" s="143"/>
+      <c r="D29" s="143"/>
+      <c r="E29" s="143"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="144"/>
+      <c r="I29" s="144"/>
+      <c r="J29" s="144"/>
+      <c r="K29" s="144"/>
+      <c r="L29" s="144"/>
+      <c r="M29" s="144"/>
       <c r="N29" s="52"/>
       <c r="O29" s="49"/>
       <c r="P29" s="53"/>
@@ -2333,18 +2405,18 @@
     </row>
     <row r="30" spans="1:19" s="47" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="21"/>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="69"/>
+      <c r="B30" s="142"/>
+      <c r="C30" s="142"/>
+      <c r="D30" s="142"/>
+      <c r="E30" s="142"/>
+      <c r="F30" s="142"/>
+      <c r="G30" s="142"/>
+      <c r="H30" s="142"/>
+      <c r="I30" s="142"/>
+      <c r="J30" s="142"/>
+      <c r="K30" s="142"/>
+      <c r="L30" s="142"/>
+      <c r="M30" s="142"/>
       <c r="N30" s="55"/>
       <c r="O30" s="50"/>
       <c r="P30" s="56"/>
@@ -2354,18 +2426,18 @@
     </row>
     <row r="31" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="20"/>
-      <c r="B31" s="71"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
+      <c r="B31" s="143"/>
+      <c r="C31" s="143"/>
+      <c r="D31" s="143"/>
+      <c r="E31" s="143"/>
+      <c r="F31" s="143"/>
+      <c r="G31" s="143"/>
+      <c r="H31" s="144"/>
+      <c r="I31" s="144"/>
+      <c r="J31" s="144"/>
+      <c r="K31" s="144"/>
+      <c r="L31" s="144"/>
+      <c r="M31" s="144"/>
       <c r="N31" s="52"/>
       <c r="O31" s="49"/>
       <c r="P31" s="53"/>
@@ -2375,18 +2447,18 @@
     </row>
     <row r="32" spans="1:19" s="47" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="69"/>
-      <c r="M32" s="69"/>
+      <c r="B32" s="142"/>
+      <c r="C32" s="142"/>
+      <c r="D32" s="142"/>
+      <c r="E32" s="142"/>
+      <c r="F32" s="142"/>
+      <c r="G32" s="142"/>
+      <c r="H32" s="142"/>
+      <c r="I32" s="142"/>
+      <c r="J32" s="142"/>
+      <c r="K32" s="142"/>
+      <c r="L32" s="142"/>
+      <c r="M32" s="142"/>
       <c r="N32" s="55"/>
       <c r="O32" s="50"/>
       <c r="P32" s="56"/>
@@ -2396,18 +2468,18 @@
     </row>
     <row r="33" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="20"/>
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="70"/>
-      <c r="L33" s="70"/>
-      <c r="M33" s="70"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="143"/>
+      <c r="E33" s="143"/>
+      <c r="F33" s="143"/>
+      <c r="G33" s="143"/>
+      <c r="H33" s="144"/>
+      <c r="I33" s="144"/>
+      <c r="J33" s="144"/>
+      <c r="K33" s="144"/>
+      <c r="L33" s="144"/>
+      <c r="M33" s="144"/>
       <c r="N33" s="52"/>
       <c r="O33" s="49"/>
       <c r="P33" s="53"/>
@@ -2417,18 +2489,18 @@
     </row>
     <row r="34" spans="1:19" s="47" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="69"/>
-      <c r="J34" s="69"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="69"/>
-      <c r="M34" s="69"/>
+      <c r="B34" s="142"/>
+      <c r="C34" s="142"/>
+      <c r="D34" s="142"/>
+      <c r="E34" s="142"/>
+      <c r="F34" s="142"/>
+      <c r="G34" s="142"/>
+      <c r="H34" s="142"/>
+      <c r="I34" s="142"/>
+      <c r="J34" s="142"/>
+      <c r="K34" s="142"/>
+      <c r="L34" s="142"/>
+      <c r="M34" s="142"/>
       <c r="N34" s="55"/>
       <c r="O34" s="50"/>
       <c r="P34" s="56"/>
@@ -2438,18 +2510,18 @@
     </row>
     <row r="35" spans="1:19" s="47" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="69"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="69"/>
-      <c r="J35" s="69"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="69"/>
-      <c r="M35" s="69"/>
+      <c r="B35" s="142"/>
+      <c r="C35" s="142"/>
+      <c r="D35" s="142"/>
+      <c r="E35" s="142"/>
+      <c r="F35" s="142"/>
+      <c r="G35" s="142"/>
+      <c r="H35" s="142"/>
+      <c r="I35" s="142"/>
+      <c r="J35" s="142"/>
+      <c r="K35" s="142"/>
+      <c r="L35" s="142"/>
+      <c r="M35" s="142"/>
       <c r="N35" s="55"/>
       <c r="O35" s="50"/>
       <c r="P35" s="56"/>
@@ -2459,18 +2531,18 @@
     </row>
     <row r="36" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="20"/>
-      <c r="B36" s="71"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="70"/>
-      <c r="J36" s="70"/>
-      <c r="K36" s="70"/>
-      <c r="L36" s="70"/>
-      <c r="M36" s="70"/>
+      <c r="B36" s="143"/>
+      <c r="C36" s="143"/>
+      <c r="D36" s="143"/>
+      <c r="E36" s="143"/>
+      <c r="F36" s="143"/>
+      <c r="G36" s="143"/>
+      <c r="H36" s="144"/>
+      <c r="I36" s="144"/>
+      <c r="J36" s="144"/>
+      <c r="K36" s="144"/>
+      <c r="L36" s="144"/>
+      <c r="M36" s="144"/>
       <c r="N36" s="52"/>
       <c r="O36" s="49"/>
       <c r="P36" s="53"/>
@@ -2480,18 +2552,18 @@
     </row>
     <row r="37" spans="1:19" s="47" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="69"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="69"/>
-      <c r="J37" s="69"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="69"/>
-      <c r="M37" s="69"/>
+      <c r="B37" s="142"/>
+      <c r="C37" s="142"/>
+      <c r="D37" s="142"/>
+      <c r="E37" s="142"/>
+      <c r="F37" s="142"/>
+      <c r="G37" s="142"/>
+      <c r="H37" s="142"/>
+      <c r="I37" s="142"/>
+      <c r="J37" s="142"/>
+      <c r="K37" s="142"/>
+      <c r="L37" s="142"/>
+      <c r="M37" s="142"/>
       <c r="N37" s="55"/>
       <c r="O37" s="50"/>
       <c r="P37" s="56"/>
@@ -2501,18 +2573,18 @@
     </row>
     <row r="38" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="20"/>
-      <c r="B38" s="71"/>
-      <c r="C38" s="71"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="70"/>
-      <c r="I38" s="70"/>
-      <c r="J38" s="70"/>
-      <c r="K38" s="70"/>
-      <c r="L38" s="70"/>
-      <c r="M38" s="70"/>
+      <c r="B38" s="143"/>
+      <c r="C38" s="143"/>
+      <c r="D38" s="143"/>
+      <c r="E38" s="143"/>
+      <c r="F38" s="143"/>
+      <c r="G38" s="143"/>
+      <c r="H38" s="144"/>
+      <c r="I38" s="144"/>
+      <c r="J38" s="144"/>
+      <c r="K38" s="144"/>
+      <c r="L38" s="144"/>
+      <c r="M38" s="144"/>
       <c r="N38" s="52"/>
       <c r="O38" s="49"/>
       <c r="P38" s="53"/>
@@ -2522,18 +2594,18 @@
     </row>
     <row r="39" spans="1:19" s="47" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
-      <c r="B39" s="72"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="72"/>
-      <c r="J39" s="72"/>
-      <c r="K39" s="72"/>
-      <c r="L39" s="72"/>
-      <c r="M39" s="72"/>
+      <c r="B39" s="145"/>
+      <c r="C39" s="145"/>
+      <c r="D39" s="145"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="145"/>
+      <c r="G39" s="145"/>
+      <c r="H39" s="145"/>
+      <c r="I39" s="145"/>
+      <c r="J39" s="145"/>
+      <c r="K39" s="145"/>
+      <c r="L39" s="145"/>
+      <c r="M39" s="145"/>
       <c r="N39" s="58"/>
       <c r="O39" s="51"/>
       <c r="P39" s="59"/>
@@ -2545,11 +2617,11 @@
       <c r="A40" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="117" t="s">
+      <c r="B40" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="117"/>
-      <c r="D40" s="117"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="69"/>
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
       <c r="G40" s="24"/>
@@ -2559,97 +2631,97 @@
       <c r="I40" s="26"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
-      <c r="L40" s="118" t="s">
+      <c r="L40" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="M40" s="118"/>
-      <c r="N40" s="118"/>
-      <c r="O40" s="121" t="s">
+      <c r="M40" s="70"/>
+      <c r="N40" s="70"/>
+      <c r="O40" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="P40" s="121"/>
-      <c r="Q40" s="121"/>
-      <c r="R40" s="122" t="s">
+      <c r="P40" s="73"/>
+      <c r="Q40" s="73"/>
+      <c r="R40" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="S40" s="123"/>
+      <c r="S40" s="75"/>
     </row>
     <row r="41" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="124" t="s">
+      <c r="B41" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="124"/>
-      <c r="D41" s="124"/>
-      <c r="E41" s="124"/>
-      <c r="F41" s="124"/>
-      <c r="G41" s="124"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
       <c r="H41" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="I41" s="126" t="s">
+      <c r="I41" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="J41" s="126"/>
+      <c r="J41" s="78"/>
       <c r="K41" s="29"/>
-      <c r="L41" s="127" t="s">
+      <c r="L41" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="M41" s="127"/>
-      <c r="N41" s="127"/>
-      <c r="O41" s="121" t="s">
+      <c r="M41" s="79"/>
+      <c r="N41" s="79"/>
+      <c r="O41" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="P41" s="121"/>
-      <c r="Q41" s="121"/>
-      <c r="R41" s="128" t="s">
+      <c r="P41" s="73"/>
+      <c r="Q41" s="73"/>
+      <c r="R41" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="S41" s="129"/>
+      <c r="S41" s="81"/>
     </row>
     <row r="42" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="124"/>
-      <c r="C42" s="124"/>
-      <c r="D42" s="124"/>
-      <c r="E42" s="124"/>
-      <c r="F42" s="124"/>
-      <c r="G42" s="124"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="76"/>
       <c r="H42" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="I42" s="126" t="s">
+      <c r="I42" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="J42" s="126"/>
+      <c r="J42" s="78"/>
       <c r="K42" s="30"/>
       <c r="L42" s="31"/>
       <c r="M42" s="31"/>
       <c r="N42" s="31"/>
-      <c r="O42" s="121" t="s">
+      <c r="O42" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="P42" s="121"/>
-      <c r="Q42" s="121"/>
-      <c r="R42" s="128" t="s">
+      <c r="P42" s="73"/>
+      <c r="Q42" s="73"/>
+      <c r="R42" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="S42" s="129"/>
+      <c r="S42" s="81"/>
     </row>
     <row r="43" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="124"/>
-      <c r="C43" s="124"/>
-      <c r="D43" s="124"/>
-      <c r="E43" s="124"/>
-      <c r="F43" s="124"/>
-      <c r="G43" s="124"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="76"/>
       <c r="H43" s="28" t="s">
         <v>42</v>
       </c>
@@ -2661,123 +2733,123 @@
       <c r="L43" s="29"/>
       <c r="M43" s="26"/>
       <c r="N43" s="33"/>
-      <c r="O43" s="75" t="s">
+      <c r="O43" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="P43" s="75"/>
-      <c r="Q43" s="75"/>
-      <c r="R43" s="130" t="s">
+      <c r="P43" s="82"/>
+      <c r="Q43" s="82"/>
+      <c r="R43" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="S43" s="131"/>
+      <c r="S43" s="84"/>
     </row>
     <row r="44" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B44" s="124"/>
-      <c r="C44" s="124"/>
-      <c r="D44" s="124"/>
-      <c r="E44" s="124"/>
-      <c r="F44" s="124"/>
-      <c r="G44" s="124"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="76"/>
       <c r="H44" s="28" t="s">
         <v>44</v>
       </c>
       <c r="I44" s="32">
         <v>227703</v>
       </c>
-      <c r="J44" s="132" t="s">
+      <c r="J44" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="K44" s="133"/>
-      <c r="L44" s="133"/>
-      <c r="M44" s="133"/>
-      <c r="N44" s="133"/>
-      <c r="O44" s="75"/>
-      <c r="P44" s="75"/>
-      <c r="Q44" s="75"/>
-      <c r="R44" s="130"/>
-      <c r="S44" s="131"/>
+      <c r="K44" s="86"/>
+      <c r="L44" s="86"/>
+      <c r="M44" s="86"/>
+      <c r="N44" s="86"/>
+      <c r="O44" s="82"/>
+      <c r="P44" s="82"/>
+      <c r="Q44" s="82"/>
+      <c r="R44" s="83"/>
+      <c r="S44" s="84"/>
     </row>
     <row r="45" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="124"/>
-      <c r="C45" s="124"/>
-      <c r="D45" s="124"/>
-      <c r="E45" s="124"/>
-      <c r="F45" s="124"/>
-      <c r="G45" s="124"/>
-      <c r="H45" s="134" t="s">
+      <c r="B45" s="76"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="76"/>
+      <c r="H45" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="I45" s="136" t="s">
+      <c r="I45" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="J45" s="136"/>
-      <c r="K45" s="138" t="s">
+      <c r="J45" s="89"/>
+      <c r="K45" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="L45" s="139"/>
-      <c r="M45" s="139"/>
-      <c r="N45" s="140"/>
-      <c r="O45" s="75"/>
-      <c r="P45" s="75"/>
-      <c r="Q45" s="75"/>
-      <c r="R45" s="130"/>
-      <c r="S45" s="131"/>
+      <c r="L45" s="92"/>
+      <c r="M45" s="92"/>
+      <c r="N45" s="93"/>
+      <c r="O45" s="82"/>
+      <c r="P45" s="82"/>
+      <c r="Q45" s="82"/>
+      <c r="R45" s="83"/>
+      <c r="S45" s="84"/>
     </row>
     <row r="46" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="124"/>
-      <c r="C46" s="124"/>
-      <c r="D46" s="124"/>
-      <c r="E46" s="124"/>
-      <c r="F46" s="124"/>
-      <c r="G46" s="124"/>
-      <c r="H46" s="134"/>
-      <c r="I46" s="136"/>
-      <c r="J46" s="136"/>
-      <c r="K46" s="141"/>
-      <c r="L46" s="142"/>
-      <c r="M46" s="142"/>
-      <c r="N46" s="143"/>
-      <c r="O46" s="147" t="s">
+      <c r="B46" s="76"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="87"/>
+      <c r="I46" s="89"/>
+      <c r="J46" s="89"/>
+      <c r="K46" s="94"/>
+      <c r="L46" s="95"/>
+      <c r="M46" s="95"/>
+      <c r="N46" s="96"/>
+      <c r="O46" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="P46" s="148"/>
-      <c r="Q46" s="148"/>
-      <c r="R46" s="151" t="s">
+      <c r="P46" s="101"/>
+      <c r="Q46" s="101"/>
+      <c r="R46" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="S46" s="119" t="s">
+      <c r="S46" s="71" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="34"/>
-      <c r="B47" s="125"/>
-      <c r="C47" s="125"/>
-      <c r="D47" s="125"/>
-      <c r="E47" s="125"/>
-      <c r="F47" s="125"/>
-      <c r="G47" s="125"/>
-      <c r="H47" s="135"/>
-      <c r="I47" s="137"/>
-      <c r="J47" s="137"/>
-      <c r="K47" s="144"/>
-      <c r="L47" s="145"/>
-      <c r="M47" s="145"/>
-      <c r="N47" s="146"/>
-      <c r="O47" s="149"/>
-      <c r="P47" s="150"/>
-      <c r="Q47" s="150"/>
-      <c r="R47" s="152"/>
-      <c r="S47" s="120"/>
+      <c r="B47" s="77"/>
+      <c r="C47" s="77"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="77"/>
+      <c r="H47" s="88"/>
+      <c r="I47" s="90"/>
+      <c r="J47" s="90"/>
+      <c r="K47" s="97"/>
+      <c r="L47" s="98"/>
+      <c r="M47" s="98"/>
+      <c r="N47" s="99"/>
+      <c r="O47" s="102"/>
+      <c r="P47" s="103"/>
+      <c r="Q47" s="103"/>
+      <c r="R47" s="105"/>
+      <c r="S47" s="72"/>
     </row>
     <row r="48" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="35"/>
@@ -2822,7 +2894,96 @@
       <c r="S49" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="99">
+  <mergeCells count="105">
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H39:M39"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A2:B5"/>
+    <mergeCell ref="C2:F5"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="Q2:S3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="F8:J14"/>
+    <mergeCell ref="K8:N11"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="I45:J47"/>
+    <mergeCell ref="K45:N47"/>
+    <mergeCell ref="O46:Q47"/>
+    <mergeCell ref="R46:R47"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="L40:N40"/>
     <mergeCell ref="S46:S47"/>
@@ -2839,89 +3000,6 @@
     <mergeCell ref="O43:Q45"/>
     <mergeCell ref="R43:S45"/>
     <mergeCell ref="J44:N44"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="I45:J47"/>
-    <mergeCell ref="K45:N47"/>
-    <mergeCell ref="O46:Q47"/>
-    <mergeCell ref="R46:R47"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="A8:E14"/>
-    <mergeCell ref="F8:J14"/>
-    <mergeCell ref="K8:N11"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="A2:B5"/>
-    <mergeCell ref="C2:F5"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="Q2:S3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="H39:M39"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="B38:G38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
